--- a/Running projects/Sana Safinaz Dolmen Mall Lahore/BOQ of HVAC & Fire Work_ Sana Safinaz,DML,Lahore..xlsx
+++ b/Running projects/Sana Safinaz Dolmen Mall Lahore/BOQ of HVAC & Fire Work_ Sana Safinaz,DML,Lahore..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Sana Safinaz Dolmen Mall Lahore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5231EA6-0BD3-4F65-9675-96E8FA763990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02954E0F-300B-4A7B-9339-D96E88C07F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="15540" yWindow="6780" windowWidth="15330" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HVAC" sheetId="2" r:id="rId1"/>
@@ -1651,7 +1651,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1754,6 +1754,12 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -1862,11 +1868,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1984,6 +1991,51 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2011,41 +2063,59 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2080,73 +2150,20 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2450,8 +2467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63:L74"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2471,48 +2488,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="46" t="s">
+      <c r="F2" s="62"/>
+      <c r="G2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="47"/>
+      <c r="H2" s="62"/>
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2590,12 +2607,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -3154,12 +3171,12 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -3657,12 +3674,12 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="53"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="47"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -3875,12 +3892,12 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="53"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="47"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -3888,23 +3905,23 @@
       <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:12" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="56"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="53"/>
     </row>
     <row r="59" spans="1:12" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="57" t="s">
+      <c r="A59" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="44"/>
       <c r="E59" s="9"/>
       <c r="F59" s="22">
         <f>SUM(F5:F56)</f>
@@ -3934,7 +3951,7 @@
       <c r="I64" s="37">
         <v>5750000</v>
       </c>
-      <c r="L64" s="89"/>
+      <c r="L64" s="39"/>
     </row>
     <row r="65" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G65" s="37"/>
@@ -3943,41 +3960,31 @@
     <row r="66" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G66" s="37"/>
       <c r="I66" s="37"/>
-      <c r="L66" s="91"/>
+      <c r="L66" s="41"/>
     </row>
     <row r="67" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G67" s="37"/>
-      <c r="L67" s="90"/>
+      <c r="L67" s="40"/>
     </row>
     <row r="68" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G68" s="37"/>
-      <c r="L68" s="90"/>
+      <c r="L68" s="40"/>
     </row>
     <row r="69" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G69" s="37"/>
-      <c r="L69" s="90"/>
+      <c r="L69" s="40"/>
     </row>
     <row r="70" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G70" s="37"/>
     </row>
     <row r="71" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="L71" s="90"/>
+      <c r="L71" s="40"/>
     </row>
     <row r="72" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="L72" s="90"/>
+      <c r="L72" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:I58"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -3985,6 +3992,16 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="79" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -3993,10 +4010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575ABACB-5F9D-4B06-B65D-8E17CB415728}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -4009,52 +4026,55 @@
     <col min="6" max="6" width="11.5" style="24" customWidth="1"/>
     <col min="7" max="8" width="10.5" style="24" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="24" customWidth="1"/>
-    <col min="10" max="16384" width="9.33203125" style="24"/>
+    <col min="10" max="13" width="9.33203125" style="24"/>
+    <col min="14" max="14" width="11.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="83"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="69" t="s">
+      <c r="F2" s="91"/>
+      <c r="G2" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="70"/>
+      <c r="H2" s="91"/>
       <c r="I2" s="25" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="64"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="25" t="s">
         <v>79</v>
       </c>
@@ -4072,12 +4092,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
@@ -4149,12 +4169,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="33" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
@@ -4162,12 +4182,12 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
@@ -4239,12 +4259,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="33" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
@@ -4252,12 +4272,12 @@
       <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -4940,12 +4960,12 @@
       </c>
     </row>
     <row r="37" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="79"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="71"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
@@ -4953,12 +4973,12 @@
       <c r="I37" s="28"/>
     </row>
     <row r="38" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="80" t="s">
+      <c r="A38" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
@@ -4998,12 +5018,12 @@
       </c>
     </row>
     <row r="40" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="79"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="71"/>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
@@ -5011,12 +5031,12 @@
       <c r="I40" s="28"/>
     </row>
     <row r="41" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="80" t="s">
+      <c r="A41" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="82"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -5180,12 +5200,12 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="83" t="s">
+      <c r="A47" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="85"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="77"/>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
@@ -5193,23 +5213,23 @@
       <c r="I47" s="28"/>
     </row>
     <row r="48" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="88"/>
-    </row>
-    <row r="49" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="71" t="s">
+      <c r="A48" s="78"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="80"/>
+    </row>
+    <row r="49" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="73"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
       <c r="E49" s="28"/>
       <c r="F49" s="22">
         <f>SUM(F4:F46)</f>
@@ -5225,19 +5245,50 @@
         <v>2527342</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H54" s="1" t="s">
         <v>131</v>
       </c>
       <c r="I54" s="38">
         <v>2050000</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N54" s="92">
+        <f>I49-I54</f>
+        <v>477342</v>
+      </c>
+      <c r="O54" s="24">
+        <f>N54/I49</f>
+        <v>0.18887115396333382</v>
+      </c>
+      <c r="P54" s="93"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O56" s="93">
+        <f>O54*I49</f>
+        <v>477342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I57" s="38"/>
+      <c r="N57" s="94"/>
+      <c r="P57" s="93"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O59" s="93">
+        <f>I49-O56</f>
+        <v>2050000</v>
+      </c>
+      <c r="P59" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A7:D7"/>
@@ -5250,13 +5301,6 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="79" orientation="portrait" r:id="rId1"/>

--- a/Running projects/Sana Safinaz Dolmen Mall Lahore/BOQ of HVAC & Fire Work_ Sana Safinaz,DML,Lahore..xlsx
+++ b/Running projects/Sana Safinaz Dolmen Mall Lahore/BOQ of HVAC & Fire Work_ Sana Safinaz,DML,Lahore..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Sana Safinaz Dolmen Mall Lahore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02954E0F-300B-4A7B-9339-D96E88C07F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB9EBA6-857C-4269-90B2-CCB76C10BFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="15540" yWindow="6780" windowWidth="15330" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HVAC" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="135">
   <si>
     <t>S. No.</t>
   </si>
@@ -1640,16 +1640,27 @@
   </si>
   <si>
     <t>Deal Lock</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>Dis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="171" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1873,7 +1884,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2000,6 +2011,69 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
     </xf>
@@ -2009,59 +2083,38 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
@@ -2117,46 +2170,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2465,10 +2485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6:O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2482,54 +2502,58 @@
     <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.33203125" style="1"/>
+    <col min="10" max="10" width="9.33203125" style="1"/>
+    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="15" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:15" ht="25.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
+    <row r="3" spans="1:15" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2546,20 +2570,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="197.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="197.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2574,7 +2598,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2605,34 +2629,82 @@
         <f>H6+F6</f>
         <v>60000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="L6" s="40">
+        <f>E6*$L$62</f>
+        <v>2610.3220023443423</v>
+      </c>
+      <c r="M6" s="40">
+        <f>E6-L6</f>
+        <v>12389.677997655657</v>
+      </c>
+      <c r="N6" s="40">
+        <f>G6*$L$62</f>
+        <v>2610.3220023443423</v>
+      </c>
+      <c r="O6" s="40">
+        <f>G6-N6</f>
+        <v>12389.677997655657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="L7" s="40">
+        <f t="shared" ref="L7:L56" si="0">E7*$L$62</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="40">
+        <f t="shared" ref="M7:M56" si="1">E7-L7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="40">
+        <f t="shared" ref="N7:N56" si="2">G7*$L$62</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="40">
+        <f t="shared" ref="O7:O56" si="3">G7-N7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="L8" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="105" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -2646,8 +2718,24 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L9" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -2678,8 +2766,24 @@
         <f>H10+F10</f>
         <v>56000</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="165" x14ac:dyDescent="0.2">
+      <c r="L10" s="40">
+        <f t="shared" si="0"/>
+        <v>104.41288009377369</v>
+      </c>
+      <c r="M10" s="40">
+        <f t="shared" si="1"/>
+        <v>495.58711990622629</v>
+      </c>
+      <c r="N10" s="40">
+        <f t="shared" si="2"/>
+        <v>17.402146682295616</v>
+      </c>
+      <c r="O10" s="40">
+        <f t="shared" si="3"/>
+        <v>82.597853317704391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="165" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -2693,8 +2797,24 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L11" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -2725,8 +2845,24 @@
         <f>H12+F12</f>
         <v>121500</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.2">
+      <c r="L12" s="40">
+        <f t="shared" si="0"/>
+        <v>200.12468684639958</v>
+      </c>
+      <c r="M12" s="40">
+        <f t="shared" si="1"/>
+        <v>949.87531315360047</v>
+      </c>
+      <c r="N12" s="40">
+        <f t="shared" si="2"/>
+        <v>34.804293364591231</v>
+      </c>
+      <c r="O12" s="40">
+        <f t="shared" si="3"/>
+        <v>165.19570663540878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="120" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>3</v>
       </c>
@@ -2740,8 +2876,24 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L13" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>3.1</v>
       </c>
@@ -2755,8 +2907,24 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L14" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -2787,8 +2955,24 @@
         <f>H15+F15</f>
         <v>59400</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="L15" s="40">
+        <f t="shared" si="0"/>
+        <v>87.010733411478085</v>
+      </c>
+      <c r="M15" s="40">
+        <f t="shared" si="1"/>
+        <v>412.9892665885219</v>
+      </c>
+      <c r="N15" s="40">
+        <f t="shared" si="2"/>
+        <v>17.402146682295616</v>
+      </c>
+      <c r="O15" s="40">
+        <f t="shared" si="3"/>
+        <v>82.597853317704391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="105" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>4</v>
       </c>
@@ -2802,8 +2986,24 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L16" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>4.0999999999999996</v>
       </c>
@@ -2817,8 +3017,24 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L17" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>9</v>
       </c>
@@ -2835,22 +3051,38 @@
         <v>18000</v>
       </c>
       <c r="F18" s="18">
-        <f t="shared" ref="F18:F29" si="0">E18*C18</f>
+        <f t="shared" ref="F18:F29" si="4">E18*C18</f>
         <v>72000</v>
       </c>
       <c r="G18" s="18">
         <v>2000</v>
       </c>
       <c r="H18" s="18">
-        <f t="shared" ref="H18:H29" si="1">G18*C18</f>
+        <f t="shared" ref="H18:H29" si="5">G18*C18</f>
         <v>8000</v>
       </c>
       <c r="I18" s="18">
-        <f t="shared" ref="I18:I29" si="2">H18+F18</f>
+        <f t="shared" ref="I18:I29" si="6">H18+F18</f>
         <v>80000</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L18" s="40">
+        <f t="shared" si="0"/>
+        <v>3132.3864028132107</v>
+      </c>
+      <c r="M18" s="40">
+        <f t="shared" si="1"/>
+        <v>14867.61359718679</v>
+      </c>
+      <c r="N18" s="40">
+        <f t="shared" si="2"/>
+        <v>348.04293364591234</v>
+      </c>
+      <c r="O18" s="40">
+        <f t="shared" si="3"/>
+        <v>1651.9570663540876</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>4.2</v>
       </c>
@@ -2861,20 +3093,36 @@
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I19" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
@@ -2891,22 +3139,38 @@
         <v>23000</v>
       </c>
       <c r="F20" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>46000</v>
       </c>
       <c r="G20" s="18">
         <v>2000</v>
       </c>
       <c r="H20" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="I20" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L20" s="40">
+        <f t="shared" si="0"/>
+        <v>4002.4937369279919</v>
+      </c>
+      <c r="M20" s="40">
+        <f t="shared" si="1"/>
+        <v>18997.506263072009</v>
+      </c>
+      <c r="N20" s="40">
+        <f t="shared" si="2"/>
+        <v>348.04293364591234</v>
+      </c>
+      <c r="O20" s="40">
+        <f t="shared" si="3"/>
+        <v>1651.9570663540876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>4.3</v>
       </c>
@@ -2917,20 +3181,36 @@
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I21" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>9</v>
       </c>
@@ -2947,22 +3227,38 @@
         <v>17500</v>
       </c>
       <c r="F22" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35000</v>
       </c>
       <c r="G22" s="18">
         <v>2000</v>
       </c>
       <c r="H22" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="I22" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>39000</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="L22" s="40">
+        <f t="shared" si="0"/>
+        <v>3045.3756694017329</v>
+      </c>
+      <c r="M22" s="40">
+        <f t="shared" si="1"/>
+        <v>14454.624330598268</v>
+      </c>
+      <c r="N22" s="40">
+        <f t="shared" si="2"/>
+        <v>348.04293364591234</v>
+      </c>
+      <c r="O22" s="40">
+        <f t="shared" si="3"/>
+        <v>1651.9570663540876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>4.4000000000000004</v>
       </c>
@@ -2973,20 +3269,36 @@
       <c r="D23" s="19"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I23" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>9</v>
       </c>
@@ -3003,22 +3315,38 @@
         <v>180000</v>
       </c>
       <c r="F24" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>360000</v>
       </c>
       <c r="G24" s="18">
         <v>3000</v>
       </c>
       <c r="H24" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6000</v>
       </c>
       <c r="I24" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>366000</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L24" s="40">
+        <f t="shared" si="0"/>
+        <v>31323.86402813211</v>
+      </c>
+      <c r="M24" s="40">
+        <f t="shared" si="1"/>
+        <v>148676.13597186789</v>
+      </c>
+      <c r="N24" s="40">
+        <f t="shared" si="2"/>
+        <v>522.06440046886848</v>
+      </c>
+      <c r="O24" s="40">
+        <f t="shared" si="3"/>
+        <v>2477.9355995311316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>4.5</v>
       </c>
@@ -3029,20 +3357,36 @@
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I25" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>9</v>
       </c>
@@ -3059,22 +3403,38 @@
         <v>12000</v>
       </c>
       <c r="F26" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>48000</v>
       </c>
       <c r="G26" s="18">
         <v>1000</v>
       </c>
       <c r="H26" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="I26" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>52000</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="L26" s="40">
+        <f t="shared" si="0"/>
+        <v>2088.2576018754739</v>
+      </c>
+      <c r="M26" s="40">
+        <f t="shared" si="1"/>
+        <v>9911.7423981245265</v>
+      </c>
+      <c r="N26" s="40">
+        <f t="shared" si="2"/>
+        <v>174.02146682295617</v>
+      </c>
+      <c r="O26" s="40">
+        <f t="shared" si="3"/>
+        <v>825.9785331770438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>15</v>
       </c>
@@ -3091,22 +3451,38 @@
         <v>12000</v>
       </c>
       <c r="F27" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>48000</v>
       </c>
       <c r="G27" s="18">
         <v>1000</v>
       </c>
       <c r="H27" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="I27" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>52000</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="L27" s="40">
+        <f t="shared" si="0"/>
+        <v>2088.2576018754739</v>
+      </c>
+      <c r="M27" s="40">
+        <f t="shared" si="1"/>
+        <v>9911.7423981245265</v>
+      </c>
+      <c r="N27" s="40">
+        <f t="shared" si="2"/>
+        <v>174.02146682295617</v>
+      </c>
+      <c r="O27" s="40">
+        <f t="shared" si="3"/>
+        <v>825.9785331770438</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>21</v>
       </c>
@@ -3123,22 +3499,38 @@
         <v>25000</v>
       </c>
       <c r="F28" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>50000</v>
       </c>
       <c r="G28" s="18">
         <v>2000</v>
       </c>
       <c r="H28" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="I28" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>54000</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="L28" s="40">
+        <f t="shared" si="0"/>
+        <v>4350.5366705739043</v>
+      </c>
+      <c r="M28" s="40">
+        <f t="shared" si="1"/>
+        <v>20649.463329426097</v>
+      </c>
+      <c r="N28" s="40">
+        <f t="shared" si="2"/>
+        <v>348.04293364591234</v>
+      </c>
+      <c r="O28" s="40">
+        <f t="shared" si="3"/>
+        <v>1651.9570663540876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>23</v>
       </c>
@@ -3155,48 +3547,96 @@
         <v>27500</v>
       </c>
       <c r="F29" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>55000</v>
       </c>
       <c r="G29" s="18">
         <v>5000</v>
       </c>
       <c r="H29" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="I29" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>65000</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="s">
+      <c r="L29" s="40">
+        <f t="shared" si="0"/>
+        <v>4785.5903376312945</v>
+      </c>
+      <c r="M29" s="40">
+        <f t="shared" si="1"/>
+        <v>22714.409662368707</v>
+      </c>
+      <c r="N29" s="40">
+        <f t="shared" si="2"/>
+        <v>870.10733411478077</v>
+      </c>
+      <c r="O29" s="40">
+        <f t="shared" si="3"/>
+        <v>4129.8926658852197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="48" t="s">
+      <c r="L30" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="50"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" ht="195" x14ac:dyDescent="0.2">
+      <c r="L31" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="195" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>1</v>
       </c>
@@ -3210,8 +3650,24 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L32" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -3228,22 +3684,38 @@
         <v>490</v>
       </c>
       <c r="F33" s="18">
-        <f t="shared" ref="F33:F48" si="3">E33*C33</f>
+        <f t="shared" ref="F33:F48" si="7">E33*C33</f>
         <v>1905120</v>
       </c>
       <c r="G33" s="18">
         <v>80</v>
       </c>
       <c r="H33" s="18">
-        <f t="shared" ref="H33:H48" si="4">G33*C33</f>
+        <f t="shared" ref="H33:H48" si="8">G33*C33</f>
         <v>311040</v>
       </c>
       <c r="I33" s="18">
-        <f t="shared" ref="I33:I48" si="5">H33+F33</f>
+        <f t="shared" ref="I33:I48" si="9">H33+F33</f>
         <v>2216160</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L33" s="40">
+        <f t="shared" si="0"/>
+        <v>85.270518743248516</v>
+      </c>
+      <c r="M33" s="40">
+        <f t="shared" si="1"/>
+        <v>404.72948125675146</v>
+      </c>
+      <c r="N33" s="40">
+        <f t="shared" si="2"/>
+        <v>13.921717345836493</v>
+      </c>
+      <c r="O33" s="40">
+        <f t="shared" si="3"/>
+        <v>66.078282654163502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>1.2</v>
       </c>
@@ -3260,22 +3732,38 @@
         <v>490</v>
       </c>
       <c r="F34" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>88200</v>
       </c>
       <c r="G34" s="18">
         <v>80</v>
       </c>
       <c r="H34" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14400</v>
       </c>
       <c r="I34" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>102600</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L34" s="40">
+        <f t="shared" si="0"/>
+        <v>85.270518743248516</v>
+      </c>
+      <c r="M34" s="40">
+        <f t="shared" si="1"/>
+        <v>404.72948125675146</v>
+      </c>
+      <c r="N34" s="40">
+        <f t="shared" si="2"/>
+        <v>13.921717345836493</v>
+      </c>
+      <c r="O34" s="40">
+        <f t="shared" si="3"/>
+        <v>66.078282654163502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>1.3</v>
       </c>
@@ -3286,20 +3774,36 @@
       <c r="D35" s="19"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I35" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>9</v>
       </c>
@@ -3316,22 +3820,38 @@
         <v>7000</v>
       </c>
       <c r="F36" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7000</v>
       </c>
       <c r="G36" s="18">
         <v>1000</v>
       </c>
       <c r="H36" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="I36" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8000</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L36" s="40">
+        <f t="shared" si="0"/>
+        <v>1218.1502677606932</v>
+      </c>
+      <c r="M36" s="40">
+        <f t="shared" si="1"/>
+        <v>5781.8497322393068</v>
+      </c>
+      <c r="N36" s="40">
+        <f t="shared" si="2"/>
+        <v>174.02146682295617</v>
+      </c>
+      <c r="O36" s="40">
+        <f t="shared" si="3"/>
+        <v>825.9785331770438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>15</v>
       </c>
@@ -3348,22 +3868,38 @@
         <v>7000</v>
       </c>
       <c r="F37" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7000</v>
       </c>
       <c r="G37" s="18">
         <v>1000</v>
       </c>
       <c r="H37" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="I37" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8000</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="L37" s="40">
+        <f t="shared" si="0"/>
+        <v>1218.1502677606932</v>
+      </c>
+      <c r="M37" s="40">
+        <f t="shared" si="1"/>
+        <v>5781.8497322393068</v>
+      </c>
+      <c r="N37" s="40">
+        <f t="shared" si="2"/>
+        <v>174.02146682295617</v>
+      </c>
+      <c r="O37" s="40">
+        <f t="shared" si="3"/>
+        <v>825.9785331770438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="90" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>2</v>
       </c>
@@ -3380,22 +3916,38 @@
         <v>580</v>
       </c>
       <c r="F38" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2831560</v>
       </c>
       <c r="G38" s="18">
         <v>60</v>
       </c>
       <c r="H38" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>292920</v>
       </c>
       <c r="I38" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3124480</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.2">
+      <c r="L38" s="40">
+        <f t="shared" si="0"/>
+        <v>100.93245075731457</v>
+      </c>
+      <c r="M38" s="40">
+        <f t="shared" si="1"/>
+        <v>479.06754924268546</v>
+      </c>
+      <c r="N38" s="40">
+        <f t="shared" si="2"/>
+        <v>10.44128800937737</v>
+      </c>
+      <c r="O38" s="40">
+        <f t="shared" si="3"/>
+        <v>49.558711990622626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="120" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>3</v>
       </c>
@@ -3406,20 +3958,36 @@
       <c r="D39" s="19"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I39" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="6" t="s">
         <v>61</v>
@@ -3428,20 +3996,36 @@
       <c r="D40" s="19"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I40" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>3.1</v>
       </c>
@@ -3452,20 +4036,36 @@
       <c r="D41" s="19"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I41" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>9</v>
       </c>
@@ -3482,22 +4082,38 @@
         <v>4500</v>
       </c>
       <c r="F42" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>27000</v>
       </c>
       <c r="G42" s="18">
         <v>750</v>
       </c>
       <c r="H42" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4500</v>
       </c>
       <c r="I42" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>31500</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L42" s="40">
+        <f t="shared" si="0"/>
+        <v>783.09660070330267</v>
+      </c>
+      <c r="M42" s="40">
+        <f t="shared" si="1"/>
+        <v>3716.9033992966974</v>
+      </c>
+      <c r="N42" s="40">
+        <f t="shared" si="2"/>
+        <v>130.51610011721712</v>
+      </c>
+      <c r="O42" s="40">
+        <f t="shared" si="3"/>
+        <v>619.48389988278291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>15</v>
       </c>
@@ -3514,22 +4130,38 @@
         <v>7500</v>
       </c>
       <c r="F43" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>217500</v>
       </c>
       <c r="G43" s="18">
         <v>750</v>
       </c>
       <c r="H43" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>21750</v>
       </c>
       <c r="I43" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>239250</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L43" s="40">
+        <f t="shared" si="0"/>
+        <v>1305.1610011721712</v>
+      </c>
+      <c r="M43" s="40">
+        <f t="shared" si="1"/>
+        <v>6194.8389988278286</v>
+      </c>
+      <c r="N43" s="40">
+        <f t="shared" si="2"/>
+        <v>130.51610011721712</v>
+      </c>
+      <c r="O43" s="40">
+        <f t="shared" si="3"/>
+        <v>619.48389988278291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>3.2</v>
       </c>
@@ -3540,20 +4172,36 @@
       <c r="D44" s="19"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I44" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>9</v>
       </c>
@@ -3570,22 +4218,38 @@
         <v>13500</v>
       </c>
       <c r="F45" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13500</v>
       </c>
       <c r="G45" s="18">
         <v>2000</v>
       </c>
       <c r="H45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
       <c r="I45" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15500</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L45" s="40">
+        <f t="shared" si="0"/>
+        <v>2349.2898021099081</v>
+      </c>
+      <c r="M45" s="40">
+        <f t="shared" si="1"/>
+        <v>11150.710197890092</v>
+      </c>
+      <c r="N45" s="40">
+        <f t="shared" si="2"/>
+        <v>348.04293364591234</v>
+      </c>
+      <c r="O45" s="40">
+        <f t="shared" si="3"/>
+        <v>1651.9570663540876</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>15</v>
       </c>
@@ -3602,22 +4266,38 @@
         <v>9250</v>
       </c>
       <c r="F46" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9250</v>
       </c>
       <c r="G46" s="18">
         <v>1000</v>
       </c>
       <c r="H46" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="I46" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10250</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L46" s="40">
+        <f t="shared" si="0"/>
+        <v>1609.6985681123444</v>
+      </c>
+      <c r="M46" s="40">
+        <f t="shared" si="1"/>
+        <v>7640.3014318876558</v>
+      </c>
+      <c r="N46" s="40">
+        <f t="shared" si="2"/>
+        <v>174.02146682295617</v>
+      </c>
+      <c r="O46" s="40">
+        <f t="shared" si="3"/>
+        <v>825.9785331770438</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>3.3</v>
       </c>
@@ -3628,20 +4308,36 @@
       <c r="D47" s="19"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I47" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>9</v>
       </c>
@@ -3658,48 +4354,96 @@
         <v>9800</v>
       </c>
       <c r="F48" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9800</v>
       </c>
       <c r="G48" s="18">
         <v>1000</v>
       </c>
       <c r="H48" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="I48" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10800</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="45" t="s">
+      <c r="L48" s="40">
+        <f t="shared" si="0"/>
+        <v>1705.4103748649704</v>
+      </c>
+      <c r="M48" s="40">
+        <f t="shared" si="1"/>
+        <v>8094.5896251350296</v>
+      </c>
+      <c r="N48" s="40">
+        <f t="shared" si="2"/>
+        <v>174.02146682295617</v>
+      </c>
+      <c r="O48" s="40">
+        <f t="shared" si="3"/>
+        <v>825.9785331770438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="47"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="48" t="s">
+      <c r="L49" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="50"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="56"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="L50" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>1</v>
       </c>
@@ -3716,22 +4460,38 @@
         <v>27000</v>
       </c>
       <c r="F51" s="18">
-        <f t="shared" ref="F51:F56" si="6">E51*C51</f>
+        <f t="shared" ref="F51:F56" si="10">E51*C51</f>
         <v>54000</v>
       </c>
       <c r="G51" s="18">
         <v>3000</v>
       </c>
       <c r="H51" s="18">
-        <f t="shared" ref="H51:H56" si="7">G51*C51</f>
+        <f t="shared" ref="H51:H56" si="11">G51*C51</f>
         <v>6000</v>
       </c>
       <c r="I51" s="18">
-        <f t="shared" ref="I51:I56" si="8">H51+F51</f>
+        <f t="shared" ref="I51:I56" si="12">H51+F51</f>
         <v>60000</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="L51" s="40">
+        <f t="shared" si="0"/>
+        <v>4698.5796042198162</v>
+      </c>
+      <c r="M51" s="40">
+        <f t="shared" si="1"/>
+        <v>22301.420395780184</v>
+      </c>
+      <c r="N51" s="40">
+        <f t="shared" si="2"/>
+        <v>522.06440046886848</v>
+      </c>
+      <c r="O51" s="40">
+        <f t="shared" si="3"/>
+        <v>2477.9355995311316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <v>2</v>
       </c>
@@ -3748,22 +4508,38 @@
         <v>10000</v>
       </c>
       <c r="F52" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="G52" s="18">
         <v>10000</v>
       </c>
       <c r="H52" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10000</v>
       </c>
       <c r="I52" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="L52" s="40">
+        <f t="shared" si="0"/>
+        <v>1740.2146682295615</v>
+      </c>
+      <c r="M52" s="40">
+        <f t="shared" si="1"/>
+        <v>8259.7853317704394</v>
+      </c>
+      <c r="N52" s="40">
+        <f t="shared" si="2"/>
+        <v>1740.2146682295615</v>
+      </c>
+      <c r="O52" s="40">
+        <f t="shared" si="3"/>
+        <v>8259.7853317704394</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>3</v>
       </c>
@@ -3780,22 +4556,38 @@
         <v>10000</v>
       </c>
       <c r="F53" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="G53" s="18">
         <v>5000</v>
       </c>
       <c r="H53" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5000</v>
       </c>
       <c r="I53" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>15000</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="L53" s="40">
+        <f t="shared" si="0"/>
+        <v>1740.2146682295615</v>
+      </c>
+      <c r="M53" s="40">
+        <f t="shared" si="1"/>
+        <v>8259.7853317704394</v>
+      </c>
+      <c r="N53" s="40">
+        <f t="shared" si="2"/>
+        <v>870.10733411478077</v>
+      </c>
+      <c r="O53" s="40">
+        <f t="shared" si="3"/>
+        <v>4129.8926658852197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <v>4</v>
       </c>
@@ -3812,22 +4604,38 @@
         <v>10000</v>
       </c>
       <c r="F54" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="G54" s="18">
         <v>10000</v>
       </c>
       <c r="H54" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10000</v>
       </c>
       <c r="I54" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+      <c r="L54" s="40">
+        <f t="shared" si="0"/>
+        <v>1740.2146682295615</v>
+      </c>
+      <c r="M54" s="40">
+        <f t="shared" si="1"/>
+        <v>8259.7853317704394</v>
+      </c>
+      <c r="N54" s="40">
+        <f t="shared" si="2"/>
+        <v>1740.2146682295615</v>
+      </c>
+      <c r="O54" s="40">
+        <f t="shared" si="3"/>
+        <v>8259.7853317704394</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="90" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>5</v>
       </c>
@@ -3844,22 +4652,38 @@
         <v>10000</v>
       </c>
       <c r="F55" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="G55" s="18">
         <v>15000</v>
       </c>
       <c r="H55" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>15000</v>
       </c>
       <c r="I55" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25000</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="L55" s="40">
+        <f t="shared" si="0"/>
+        <v>1740.2146682295615</v>
+      </c>
+      <c r="M55" s="40">
+        <f t="shared" si="1"/>
+        <v>8259.7853317704394</v>
+      </c>
+      <c r="N55" s="40">
+        <f t="shared" si="2"/>
+        <v>2610.3220023443423</v>
+      </c>
+      <c r="O55" s="40">
+        <f t="shared" si="3"/>
+        <v>12389.677997655657</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
         <v>6</v>
       </c>
@@ -3876,52 +4700,68 @@
         <v>0</v>
       </c>
       <c r="F56" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G56" s="18">
         <v>0</v>
       </c>
       <c r="H56" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I56" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="45" t="s">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="47"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="1:12" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="53"/>
-    </row>
-    <row r="59" spans="1:12" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="42" t="s">
+    <row r="58" spans="1:15" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="60"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="62"/>
+    </row>
+    <row r="59" spans="1:15" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="44"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="65"/>
       <c r="E59" s="9"/>
       <c r="F59" s="22">
         <f>SUM(F5:F56)</f>
@@ -3937,13 +4777,33 @@
         <v>6961440</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I62" s="37"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I61" s="37">
+        <f>I59*L62</f>
+        <v>1211440</v>
+      </c>
+      <c r="L61" s="39">
+        <f>I59-I64</f>
+        <v>1211440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I62" s="37">
+        <f>I59-I61</f>
+        <v>5750000</v>
+      </c>
+      <c r="L62" s="97">
+        <f>L61/I59</f>
+        <v>0.17402146682295616</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I63" s="37"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G64" s="37"/>
       <c r="H64" s="1" t="s">
         <v>131</v>
@@ -3951,6 +4811,10 @@
       <c r="I64" s="37">
         <v>5750000</v>
       </c>
+      <c r="K64" s="39">
+        <f>I59+FIRE!I49</f>
+        <v>9488782</v>
+      </c>
       <c r="L64" s="39"/>
     </row>
     <row r="65" spans="7:12" x14ac:dyDescent="0.2">
@@ -3960,6 +4824,10 @@
     <row r="66" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G66" s="37"/>
       <c r="I66" s="37"/>
+      <c r="K66" s="39">
+        <f>I64+FIRE!I54</f>
+        <v>7800000</v>
+      </c>
       <c r="L66" s="41"/>
     </row>
     <row r="67" spans="7:12" x14ac:dyDescent="0.2">
@@ -3985,6 +4853,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:I58"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -3992,16 +4870,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:I58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="79" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4012,8 +4880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575ABACB-5F9D-4B06-B65D-8E17CB415728}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -4026,55 +4894,57 @@
     <col min="6" max="6" width="11.5" style="24" customWidth="1"/>
     <col min="7" max="8" width="10.5" style="24" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="24" customWidth="1"/>
-    <col min="10" max="13" width="9.33203125" style="24"/>
+    <col min="10" max="11" width="9.33203125" style="24"/>
+    <col min="12" max="12" width="14.5" style="24" customWidth="1"/>
+    <col min="13" max="13" width="14" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.83203125" style="24" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="17.5" style="24" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.33203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="83"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="90" t="s">
+      <c r="F2" s="76"/>
+      <c r="G2" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="91"/>
+      <c r="H2" s="76"/>
       <c r="I2" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="85"/>
+    <row r="3" spans="1:16" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="70"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="25" t="s">
         <v>79</v>
       </c>
@@ -4091,20 +4961,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+    <row r="4" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31">
         <v>1</v>
       </c>
@@ -4135,8 +5005,24 @@
         <f>H5+F5</f>
         <v>55000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="96">
+        <f>E5*$L$53</f>
+        <v>5099.4900000000007</v>
+      </c>
+      <c r="M5" s="96">
+        <f>E5-L5</f>
+        <v>21900.51</v>
+      </c>
+      <c r="O5" s="96">
+        <f>G5*$L$53</f>
+        <v>94.435000000000002</v>
+      </c>
+      <c r="P5" s="96">
+        <f>G5-O5</f>
+        <v>405.565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31">
         <v>2</v>
       </c>
@@ -4167,34 +5053,82 @@
         <f>H6+F6</f>
         <v>67000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="33" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
+      <c r="L6" s="96">
+        <f t="shared" ref="L6:L46" si="0">E6*$L$53</f>
+        <v>3069.1375000000003</v>
+      </c>
+      <c r="M6" s="96">
+        <f t="shared" ref="M6:M46" si="1">E6-L6</f>
+        <v>13180.862499999999</v>
+      </c>
+      <c r="O6" s="96">
+        <f t="shared" ref="O6:O46" si="2">G6*$L$53</f>
+        <v>94.435000000000002</v>
+      </c>
+      <c r="P6" s="96">
+        <f t="shared" ref="P6:P46" si="3">G6-O6</f>
+        <v>405.565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="33" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="72" t="s">
+      <c r="L7" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" s="33" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="33" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>1</v>
       </c>
@@ -4211,22 +5145,38 @@
         <v>4250</v>
       </c>
       <c r="F9" s="18">
-        <f t="shared" ref="F9:F10" si="0">E9*C9</f>
+        <f t="shared" ref="F9:F10" si="4">E9*C9</f>
         <v>42500</v>
       </c>
       <c r="G9" s="18">
         <v>600</v>
       </c>
       <c r="H9" s="18">
-        <f t="shared" ref="H9:H10" si="1">G9*C9</f>
+        <f t="shared" ref="H9:H10" si="5">G9*C9</f>
         <v>6000</v>
       </c>
       <c r="I9" s="18">
-        <f t="shared" ref="I9:I10" si="2">H9+F9</f>
+        <f t="shared" ref="I9:I10" si="6">H9+F9</f>
         <v>48500</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="L9" s="96">
+        <f t="shared" si="0"/>
+        <v>802.69749999999999</v>
+      </c>
+      <c r="M9" s="96">
+        <f t="shared" si="1"/>
+        <v>3447.3024999999998</v>
+      </c>
+      <c r="O9" s="96">
+        <f t="shared" si="2"/>
+        <v>113.322</v>
+      </c>
+      <c r="P9" s="96">
+        <f t="shared" si="3"/>
+        <v>486.678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>2</v>
       </c>
@@ -4243,48 +5193,96 @@
         <v>3150</v>
       </c>
       <c r="F10" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>226800</v>
       </c>
       <c r="G10" s="18">
         <v>500</v>
       </c>
       <c r="H10" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>36000</v>
       </c>
       <c r="I10" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>262800</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="33" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
+      <c r="L10" s="96">
+        <f t="shared" si="0"/>
+        <v>594.94050000000004</v>
+      </c>
+      <c r="M10" s="96">
+        <f t="shared" si="1"/>
+        <v>2555.0594999999998</v>
+      </c>
+      <c r="O10" s="96">
+        <f t="shared" si="2"/>
+        <v>94.435000000000002</v>
+      </c>
+      <c r="P10" s="96">
+        <f t="shared" si="3"/>
+        <v>405.565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="33" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="72" t="s">
+      <c r="L11" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:9" s="33" customFormat="1" ht="141.75" x14ac:dyDescent="0.2">
+      <c r="L12" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="33" customFormat="1" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
         <v>1</v>
       </c>
@@ -4298,8 +5296,24 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>92</v>
       </c>
@@ -4316,22 +5330,38 @@
         <v>650</v>
       </c>
       <c r="F14" s="18">
-        <f t="shared" ref="F14:F19" si="3">E14*C14</f>
+        <f t="shared" ref="F14:F19" si="7">E14*C14</f>
         <v>273000</v>
       </c>
       <c r="G14" s="18">
         <v>150</v>
       </c>
       <c r="H14" s="18">
-        <f t="shared" ref="H14:H19" si="4">G14*C14</f>
+        <f t="shared" ref="H14:H19" si="8">G14*C14</f>
         <v>63000</v>
       </c>
       <c r="I14" s="18">
-        <f t="shared" ref="I14:I19" si="5">H14+F14</f>
+        <f t="shared" ref="I14:I19" si="9">H14+F14</f>
         <v>336000</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="96">
+        <f t="shared" si="0"/>
+        <v>122.7655</v>
+      </c>
+      <c r="M14" s="96">
+        <f t="shared" si="1"/>
+        <v>527.23450000000003</v>
+      </c>
+      <c r="O14" s="96">
+        <f t="shared" si="2"/>
+        <v>28.330500000000001</v>
+      </c>
+      <c r="P14" s="96">
+        <f t="shared" si="3"/>
+        <v>121.6695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
         <v>95</v>
       </c>
@@ -4348,22 +5378,38 @@
         <v>875</v>
       </c>
       <c r="F15" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>140000</v>
       </c>
       <c r="G15" s="18">
         <v>200</v>
       </c>
       <c r="H15" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>32000</v>
       </c>
       <c r="I15" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>172000</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="96">
+        <f t="shared" si="0"/>
+        <v>165.26125000000002</v>
+      </c>
+      <c r="M15" s="96">
+        <f t="shared" si="1"/>
+        <v>709.73874999999998</v>
+      </c>
+      <c r="O15" s="96">
+        <f t="shared" si="2"/>
+        <v>37.774000000000001</v>
+      </c>
+      <c r="P15" s="96">
+        <f t="shared" si="3"/>
+        <v>162.226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>97</v>
       </c>
@@ -4380,22 +5426,38 @@
         <v>990</v>
       </c>
       <c r="F16" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>250470</v>
       </c>
       <c r="G16" s="18">
         <v>250</v>
       </c>
       <c r="H16" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63250</v>
       </c>
       <c r="I16" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>313720</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="96">
+        <f t="shared" si="0"/>
+        <v>186.9813</v>
+      </c>
+      <c r="M16" s="96">
+        <f t="shared" si="1"/>
+        <v>803.01869999999997</v>
+      </c>
+      <c r="O16" s="96">
+        <f t="shared" si="2"/>
+        <v>47.217500000000001</v>
+      </c>
+      <c r="P16" s="96">
+        <f t="shared" si="3"/>
+        <v>202.7825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
         <v>99</v>
       </c>
@@ -4412,22 +5474,38 @@
         <v>1275</v>
       </c>
       <c r="F17" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>167025</v>
       </c>
       <c r="G17" s="18">
         <v>300</v>
       </c>
       <c r="H17" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>39300</v>
       </c>
       <c r="I17" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>206325</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="96">
+        <f t="shared" si="0"/>
+        <v>240.80925000000002</v>
+      </c>
+      <c r="M17" s="96">
+        <f t="shared" si="1"/>
+        <v>1034.19075</v>
+      </c>
+      <c r="O17" s="96">
+        <f t="shared" si="2"/>
+        <v>56.661000000000001</v>
+      </c>
+      <c r="P17" s="96">
+        <f t="shared" si="3"/>
+        <v>243.339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
         <v>101</v>
       </c>
@@ -4444,22 +5522,38 @@
         <v>1815</v>
       </c>
       <c r="F18" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>52635</v>
       </c>
       <c r="G18" s="18">
         <v>350</v>
       </c>
       <c r="H18" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10150</v>
       </c>
       <c r="I18" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>62785</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="96">
+        <f t="shared" si="0"/>
+        <v>342.79905000000002</v>
+      </c>
+      <c r="M18" s="96">
+        <f t="shared" si="1"/>
+        <v>1472.2009499999999</v>
+      </c>
+      <c r="O18" s="96">
+        <f t="shared" si="2"/>
+        <v>66.104500000000002</v>
+      </c>
+      <c r="P18" s="96">
+        <f t="shared" si="3"/>
+        <v>283.89549999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
         <v>103</v>
       </c>
@@ -4476,22 +5570,38 @@
         <v>2370</v>
       </c>
       <c r="F19" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>300990</v>
       </c>
       <c r="G19" s="18">
         <v>400</v>
       </c>
       <c r="H19" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>50800</v>
       </c>
       <c r="I19" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>351790</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="L19" s="96">
+        <f t="shared" si="0"/>
+        <v>447.62190000000004</v>
+      </c>
+      <c r="M19" s="96">
+        <f t="shared" si="1"/>
+        <v>1922.3780999999999</v>
+      </c>
+      <c r="O19" s="96">
+        <f t="shared" si="2"/>
+        <v>75.548000000000002</v>
+      </c>
+      <c r="P19" s="96">
+        <f t="shared" si="3"/>
+        <v>324.452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A20" s="31">
         <v>2</v>
       </c>
@@ -4505,8 +5615,24 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-    </row>
-    <row r="21" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
         <v>92</v>
       </c>
@@ -4537,8 +5663,24 @@
         <f>H21+F21</f>
         <v>60000</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="33" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
+      <c r="L21" s="96">
+        <f t="shared" si="0"/>
+        <v>10954.460000000001</v>
+      </c>
+      <c r="M21" s="96">
+        <f t="shared" si="1"/>
+        <v>47045.54</v>
+      </c>
+      <c r="O21" s="96">
+        <f t="shared" si="2"/>
+        <v>377.74</v>
+      </c>
+      <c r="P21" s="96">
+        <f t="shared" si="3"/>
+        <v>1622.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="33" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A22" s="31">
         <v>3</v>
       </c>
@@ -4552,8 +5694,24 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-    </row>
-    <row r="23" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L22" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35">
         <v>3.1</v>
       </c>
@@ -4567,8 +5725,24 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
         <v>92</v>
       </c>
@@ -4585,22 +5759,38 @@
         <v>16300</v>
       </c>
       <c r="F24" s="18">
-        <f t="shared" ref="F24:F27" si="6">E24*C24</f>
+        <f t="shared" ref="F24:F27" si="10">E24*C24</f>
         <v>16300</v>
       </c>
       <c r="G24" s="18">
         <v>1000</v>
       </c>
       <c r="H24" s="18">
-        <f t="shared" ref="H24:H27" si="7">G24*C24</f>
+        <f t="shared" ref="H24:H27" si="11">G24*C24</f>
         <v>1000</v>
       </c>
       <c r="I24" s="18">
-        <f t="shared" ref="I24:I27" si="8">H24+F24</f>
+        <f t="shared" ref="I24:I27" si="12">H24+F24</f>
         <v>17300</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L24" s="96">
+        <f t="shared" si="0"/>
+        <v>3078.5810000000001</v>
+      </c>
+      <c r="M24" s="96">
+        <f t="shared" si="1"/>
+        <v>13221.419</v>
+      </c>
+      <c r="O24" s="96">
+        <f t="shared" si="2"/>
+        <v>188.87</v>
+      </c>
+      <c r="P24" s="96">
+        <f t="shared" si="3"/>
+        <v>811.13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34" t="s">
         <v>95</v>
       </c>
@@ -4617,22 +5807,38 @@
         <v>16500</v>
       </c>
       <c r="F25" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>16500</v>
       </c>
       <c r="G25" s="18">
         <v>1000</v>
       </c>
       <c r="H25" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="I25" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>17500</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L25" s="96">
+        <f t="shared" si="0"/>
+        <v>3116.355</v>
+      </c>
+      <c r="M25" s="96">
+        <f t="shared" si="1"/>
+        <v>13383.645</v>
+      </c>
+      <c r="O25" s="96">
+        <f t="shared" si="2"/>
+        <v>188.87</v>
+      </c>
+      <c r="P25" s="96">
+        <f t="shared" si="3"/>
+        <v>811.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="34" t="s">
         <v>97</v>
       </c>
@@ -4649,22 +5855,38 @@
         <v>17500</v>
       </c>
       <c r="F26" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>17500</v>
       </c>
       <c r="G26" s="18">
         <v>1000</v>
       </c>
       <c r="H26" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="I26" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>18500</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L26" s="96">
+        <f t="shared" si="0"/>
+        <v>3305.2250000000004</v>
+      </c>
+      <c r="M26" s="96">
+        <f t="shared" si="1"/>
+        <v>14194.775</v>
+      </c>
+      <c r="O26" s="96">
+        <f t="shared" si="2"/>
+        <v>188.87</v>
+      </c>
+      <c r="P26" s="96">
+        <f t="shared" si="3"/>
+        <v>811.13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34" t="s">
         <v>99</v>
       </c>
@@ -4681,22 +5903,38 @@
         <v>17650</v>
       </c>
       <c r="F27" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>52950</v>
       </c>
       <c r="G27" s="18">
         <v>1000</v>
       </c>
       <c r="H27" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3000</v>
       </c>
       <c r="I27" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>55950</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L27" s="96">
+        <f t="shared" si="0"/>
+        <v>3333.5555000000004</v>
+      </c>
+      <c r="M27" s="96">
+        <f t="shared" si="1"/>
+        <v>14316.4445</v>
+      </c>
+      <c r="O27" s="96">
+        <f t="shared" si="2"/>
+        <v>188.87</v>
+      </c>
+      <c r="P27" s="96">
+        <f t="shared" si="3"/>
+        <v>811.13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <v>3.2</v>
       </c>
@@ -4710,8 +5948,24 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L28" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="34" t="s">
         <v>92</v>
       </c>
@@ -4728,22 +5982,38 @@
         <v>20500</v>
       </c>
       <c r="F29" s="18">
-        <f t="shared" ref="F29:F36" si="9">E29*C29</f>
+        <f t="shared" ref="F29:F36" si="13">E29*C29</f>
         <v>20500</v>
       </c>
       <c r="G29" s="18">
         <v>1000</v>
       </c>
       <c r="H29" s="18">
-        <f t="shared" ref="H29:H36" si="10">G29*C29</f>
+        <f t="shared" ref="H29:H36" si="14">G29*C29</f>
         <v>1000</v>
       </c>
       <c r="I29" s="18">
-        <f t="shared" ref="I29:I36" si="11">H29+F29</f>
+        <f t="shared" ref="I29:I36" si="15">H29+F29</f>
         <v>21500</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L29" s="96">
+        <f t="shared" si="0"/>
+        <v>3871.835</v>
+      </c>
+      <c r="M29" s="96">
+        <f t="shared" si="1"/>
+        <v>16628.165000000001</v>
+      </c>
+      <c r="O29" s="96">
+        <f t="shared" si="2"/>
+        <v>188.87</v>
+      </c>
+      <c r="P29" s="96">
+        <f t="shared" si="3"/>
+        <v>811.13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
         <v>97</v>
       </c>
@@ -4760,22 +6030,38 @@
         <v>21250</v>
       </c>
       <c r="F30" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>21250</v>
       </c>
       <c r="G30" s="18">
         <v>1000</v>
       </c>
       <c r="H30" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="I30" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>22250</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L30" s="96">
+        <f t="shared" si="0"/>
+        <v>4013.4875000000002</v>
+      </c>
+      <c r="M30" s="96">
+        <f t="shared" si="1"/>
+        <v>17236.512500000001</v>
+      </c>
+      <c r="O30" s="96">
+        <f t="shared" si="2"/>
+        <v>188.87</v>
+      </c>
+      <c r="P30" s="96">
+        <f t="shared" si="3"/>
+        <v>811.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34" t="s">
         <v>92</v>
       </c>
@@ -4792,22 +6078,38 @@
         <v>22222</v>
       </c>
       <c r="F31" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>22222</v>
       </c>
       <c r="G31" s="18">
         <v>1000</v>
       </c>
       <c r="H31" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="I31" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>23222</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L31" s="96">
+        <f t="shared" si="0"/>
+        <v>4197.0691400000005</v>
+      </c>
+      <c r="M31" s="96">
+        <f t="shared" si="1"/>
+        <v>18024.93086</v>
+      </c>
+      <c r="O31" s="96">
+        <f t="shared" si="2"/>
+        <v>188.87</v>
+      </c>
+      <c r="P31" s="96">
+        <f t="shared" si="3"/>
+        <v>811.13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35">
         <v>3.3</v>
       </c>
@@ -4818,20 +6120,36 @@
       <c r="D32" s="27"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I32" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34" t="s">
         <v>92</v>
       </c>
@@ -4848,22 +6166,38 @@
         <v>6000</v>
       </c>
       <c r="F33" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>78000</v>
       </c>
       <c r="G33" s="18">
         <v>1500</v>
       </c>
       <c r="H33" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19500</v>
       </c>
       <c r="I33" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>97500</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L33" s="96">
+        <f t="shared" si="0"/>
+        <v>1133.22</v>
+      </c>
+      <c r="M33" s="96">
+        <f t="shared" si="1"/>
+        <v>4866.78</v>
+      </c>
+      <c r="O33" s="96">
+        <f t="shared" si="2"/>
+        <v>283.30500000000001</v>
+      </c>
+      <c r="P33" s="96">
+        <f t="shared" si="3"/>
+        <v>1216.6949999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="34" t="s">
         <v>95</v>
       </c>
@@ -4880,22 +6214,38 @@
         <v>6250</v>
       </c>
       <c r="F34" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>75000</v>
       </c>
       <c r="G34" s="18">
         <v>500</v>
       </c>
       <c r="H34" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6000</v>
       </c>
       <c r="I34" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>81000</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L34" s="96">
+        <f t="shared" si="0"/>
+        <v>1180.4375</v>
+      </c>
+      <c r="M34" s="96">
+        <f t="shared" si="1"/>
+        <v>5069.5625</v>
+      </c>
+      <c r="O34" s="96">
+        <f t="shared" si="2"/>
+        <v>94.435000000000002</v>
+      </c>
+      <c r="P34" s="96">
+        <f t="shared" si="3"/>
+        <v>405.565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
         <v>97</v>
       </c>
@@ -4912,22 +6262,38 @@
         <v>6500</v>
       </c>
       <c r="F35" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>19500</v>
       </c>
       <c r="G35" s="18">
         <v>500</v>
       </c>
       <c r="H35" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1500</v>
       </c>
       <c r="I35" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>21000</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L35" s="96">
+        <f t="shared" si="0"/>
+        <v>1227.655</v>
+      </c>
+      <c r="M35" s="96">
+        <f t="shared" si="1"/>
+        <v>5272.3450000000003</v>
+      </c>
+      <c r="O35" s="96">
+        <f t="shared" si="2"/>
+        <v>94.435000000000002</v>
+      </c>
+      <c r="P35" s="96">
+        <f t="shared" si="3"/>
+        <v>405.565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>99</v>
       </c>
@@ -4944,48 +6310,96 @@
         <v>7200</v>
       </c>
       <c r="F36" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7200</v>
       </c>
       <c r="G36" s="18">
         <v>500</v>
       </c>
       <c r="H36" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="I36" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7700</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="69" t="s">
+      <c r="L36" s="96">
+        <f t="shared" si="0"/>
+        <v>1359.864</v>
+      </c>
+      <c r="M36" s="96">
+        <f t="shared" si="1"/>
+        <v>5840.1360000000004</v>
+      </c>
+      <c r="O36" s="96">
+        <f t="shared" si="2"/>
+        <v>94.435000000000002</v>
+      </c>
+      <c r="P36" s="96">
+        <f t="shared" si="3"/>
+        <v>405.565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="71"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
-    </row>
-    <row r="38" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="72" t="s">
+      <c r="L37" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="74"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="88"/>
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-    </row>
-    <row r="39" spans="1:9" s="33" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+      <c r="L38" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="33" customFormat="1" ht="126" x14ac:dyDescent="0.2">
       <c r="A39" s="31">
         <v>1</v>
       </c>
@@ -5016,34 +6430,82 @@
         <f>H39+F39</f>
         <v>28000</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="69" t="s">
+      <c r="L39" s="96">
+        <f t="shared" si="0"/>
+        <v>3777.4</v>
+      </c>
+      <c r="M39" s="96">
+        <f t="shared" si="1"/>
+        <v>16222.6</v>
+      </c>
+      <c r="O39" s="96">
+        <f t="shared" si="2"/>
+        <v>1510.96</v>
+      </c>
+      <c r="P39" s="96">
+        <f t="shared" si="3"/>
+        <v>6489.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="71"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
-    </row>
-    <row r="41" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="72" t="s">
+      <c r="L40" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="88"/>
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-    </row>
-    <row r="42" spans="1:9" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="L41" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" s="31">
         <v>1</v>
       </c>
@@ -5060,22 +6522,38 @@
         <v>10000</v>
       </c>
       <c r="F42" s="18">
-        <f t="shared" ref="F42:F46" si="12">E42*C42</f>
+        <f t="shared" ref="F42:F46" si="16">E42*C42</f>
         <v>10000</v>
       </c>
       <c r="G42" s="18">
         <v>10000</v>
       </c>
       <c r="H42" s="18">
-        <f t="shared" ref="H42:H46" si="13">G42*C42</f>
+        <f t="shared" ref="H42:H46" si="17">G42*C42</f>
         <v>10000</v>
       </c>
       <c r="I42" s="18">
-        <f t="shared" ref="I42:I46" si="14">H42+F42</f>
+        <f t="shared" ref="I42:I46" si="18">H42+F42</f>
         <v>20000</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="L42" s="96">
+        <f t="shared" si="0"/>
+        <v>1888.7</v>
+      </c>
+      <c r="M42" s="96">
+        <f t="shared" si="1"/>
+        <v>8111.3</v>
+      </c>
+      <c r="O42" s="96">
+        <f t="shared" si="2"/>
+        <v>1888.7</v>
+      </c>
+      <c r="P42" s="96">
+        <f t="shared" si="3"/>
+        <v>8111.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" s="31">
         <v>2</v>
       </c>
@@ -5092,22 +6570,38 @@
         <v>10000</v>
       </c>
       <c r="F43" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>10000</v>
       </c>
       <c r="G43" s="18">
         <v>15000</v>
       </c>
       <c r="H43" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>15000</v>
       </c>
       <c r="I43" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>25000</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="L43" s="96">
+        <f t="shared" si="0"/>
+        <v>1888.7</v>
+      </c>
+      <c r="M43" s="96">
+        <f t="shared" si="1"/>
+        <v>8111.3</v>
+      </c>
+      <c r="O43" s="96">
+        <f t="shared" si="2"/>
+        <v>2833.05</v>
+      </c>
+      <c r="P43" s="96">
+        <f t="shared" si="3"/>
+        <v>12166.95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A44" s="31">
         <v>3</v>
       </c>
@@ -5124,22 +6618,38 @@
         <v>45000</v>
       </c>
       <c r="F44" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45000</v>
       </c>
       <c r="G44" s="18">
         <v>55000</v>
       </c>
       <c r="H44" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>55000</v>
       </c>
       <c r="I44" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" s="33" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="L44" s="96">
+        <f t="shared" si="0"/>
+        <v>8499.15</v>
+      </c>
+      <c r="M44" s="96">
+        <f t="shared" si="1"/>
+        <v>36500.85</v>
+      </c>
+      <c r="O44" s="96">
+        <f t="shared" si="2"/>
+        <v>10387.85</v>
+      </c>
+      <c r="P44" s="96">
+        <f t="shared" si="3"/>
+        <v>44612.15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="33" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A45" s="31">
         <v>4</v>
       </c>
@@ -5156,22 +6666,38 @@
         <v>15000</v>
       </c>
       <c r="F45" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>15000</v>
       </c>
       <c r="G45" s="18">
         <v>20000</v>
       </c>
       <c r="H45" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>20000</v>
       </c>
       <c r="I45" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>35000</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="33" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="L45" s="96">
+        <f t="shared" si="0"/>
+        <v>2833.05</v>
+      </c>
+      <c r="M45" s="96">
+        <f t="shared" si="1"/>
+        <v>12166.95</v>
+      </c>
+      <c r="O45" s="96">
+        <f t="shared" si="2"/>
+        <v>3777.4</v>
+      </c>
+      <c r="P45" s="96">
+        <f t="shared" si="3"/>
+        <v>16222.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="33" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A46" s="31">
         <v>5</v>
       </c>
@@ -5186,50 +6712,66 @@
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I46" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="75" t="s">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="77"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="91"/>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="80"/>
+    <row r="48" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="92"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="94"/>
     </row>
     <row r="49" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="65"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="79"/>
       <c r="E49" s="28"/>
       <c r="F49" s="22">
         <f>SUM(F4:F46)</f>
@@ -5245,6 +6787,37 @@
         <v>2527342</v>
       </c>
     </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H51" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I51" s="38">
+        <f>I49*L53</f>
+        <v>477339.08354000002</v>
+      </c>
+      <c r="L51" s="24">
+        <f>I54/I49</f>
+        <v>0.81112884603666624</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H52" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I52" s="42">
+        <f>I49-I51</f>
+        <v>2050002.91646</v>
+      </c>
+      <c r="L52" s="42">
+        <f>I49-I54</f>
+        <v>477342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L53" s="95">
+        <v>0.18887000000000001</v>
+      </c>
+    </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H54" s="1" t="s">
         <v>131</v>
@@ -5252,7 +6825,7 @@
       <c r="I54" s="38">
         <v>2050000</v>
       </c>
-      <c r="N54" s="92">
+      <c r="N54" s="42">
         <f>I49-I54</f>
         <v>477342</v>
       </c>
@@ -5260,35 +6833,28 @@
         <f>N54/I49</f>
         <v>0.18887115396333382</v>
       </c>
-      <c r="P54" s="93"/>
+      <c r="P54" s="43"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O56" s="93">
+      <c r="O56" s="43">
         <f>O54*I49</f>
         <v>477342</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I57" s="38"/>
-      <c r="N57" s="94"/>
-      <c r="P57" s="93"/>
+      <c r="N57" s="44"/>
+      <c r="P57" s="43"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O59" s="93">
+      <c r="O59" s="43">
         <f>I49-O56</f>
         <v>2050000</v>
       </c>
-      <c r="P59" s="93"/>
+      <c r="P59" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A7:D7"/>
@@ -5301,6 +6867,13 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="79" orientation="portrait" r:id="rId1"/>
